--- a/choco/converters/validation/results/s2-03/sample_3/ireal-pro_558.xlsx
+++ b/choco/converters/validation/results/s2-03/sample_3/ireal-pro_558.xlsx
@@ -452,8 +452,8 @@
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="b">
-        <v>0</v>
+      <c r="C7" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>17</v>
